--- a/DLMPs.xlsx
+++ b/DLMPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC541E2-4D5D-4F0C-A5D3-BC30DC288846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E1A0D-B7AF-4583-ACC5-8F0C4D9A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9960" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/DLMPs.xlsx
+++ b/DLMPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E1A0D-B7AF-4583-ACC5-8F0C4D9A336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665042E-1943-4093-8039-8521EF9202E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
   </bookViews>

--- a/DLMPs.xlsx
+++ b/DLMPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665042E-1943-4093-8039-8521EF9202E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B86C23-712E-4F60-9BD0-03C78D551F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="9920" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.36000000000000004</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.36000000000000004</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.36000000000000004</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.36000000000000004</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.36000000000000004</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.36000000000000004</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.36000000000000004</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.36000000000000004</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.36000000000000004</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.36000000000000004</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.36000000000000004</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.36000000000000004</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.36000000000000004</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.36000000000000004</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.36000000000000004</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.36000000000000004</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.36000000000000004</v>
       </c>

--- a/DLMPs.xlsx
+++ b/DLMPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B86C23-712E-4F60-9BD0-03C78D551F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468E1EE-B1C1-4F3B-B165-94B3BE514F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7220" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,9 +398,9 @@
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.36000000000000004</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.36000000000000004</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.36000000000000004</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.36000000000000004</v>
       </c>
@@ -696,7 +696,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.36000000000000004</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.36000000000000004</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.36000000000000004</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.36000000000000004</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.36000000000000004</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.36000000000000004</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36000000000000004</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.36000000000000004</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.36000000000000004</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.36000000000000004</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.36000000000000004</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.36000000000000004</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.36000000000000004</v>
       </c>

--- a/DLMPs.xlsx
+++ b/DLMPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19160\Desktop\dw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468E1EE-B1C1-4F3B-B165-94B3BE514F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC5ED5-53B2-48B2-902F-28AB4EE87F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7220" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8772" xr2:uid="{8627C4D4-0A57-4D91-9967-AC42AFC850E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,12 +395,12 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection sqref="A1:X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.36000000000000004</v>
       </c>
@@ -429,7 +429,7 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="J1">
-        <v>0.41399999999999998</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="K1">
         <v>0.47700000000000004</v>
@@ -450,10 +450,10 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q1">
-        <v>0.63900000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="R1">
-        <v>0.59400000000000008</v>
+        <v>0.66</v>
       </c>
       <c r="S1">
         <v>0.58000000000000007</v>
@@ -474,7 +474,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.36000000000000004</v>
       </c>
@@ -497,43 +497,43 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H2">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I2">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J2">
-        <v>49.586000000000006</v>
+        <v>30.58</v>
       </c>
       <c r="K2">
-        <v>49.522999999999996</v>
+        <v>0.47700000000000004</v>
       </c>
       <c r="L2">
-        <v>49.487000000000002</v>
+        <v>0.51300000000000012</v>
       </c>
       <c r="M2">
-        <v>49.433000000000007</v>
+        <v>0.56700000000000006</v>
       </c>
       <c r="N2">
-        <v>49.397000000000006</v>
+        <v>0.60300000000000009</v>
       </c>
       <c r="O2">
-        <v>49.361000000000011</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="P2">
-        <v>49.325000000000003</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="Q2">
-        <v>49.361000000000011</v>
+        <v>60.08</v>
       </c>
       <c r="R2">
-        <v>49.406000000000006</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S2">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T2">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U2">
         <v>0.45</v>
@@ -548,7 +548,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.36000000000000004</v>
       </c>
@@ -571,13 +571,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H3">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I3">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J3">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K3">
         <v>0.47700000000000004</v>
@@ -598,16 +598,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q3">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R3">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S3">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T3">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U3">
         <v>0.45</v>
@@ -622,7 +622,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.36000000000000004</v>
       </c>
@@ -645,13 +645,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I4">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J4">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K4">
         <v>0.47700000000000004</v>
@@ -672,16 +672,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q4">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R4">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S4">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T4">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U4">
         <v>0.45</v>
@@ -696,7 +696,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.36000000000000004</v>
       </c>
@@ -719,13 +719,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H5">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I5">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J5">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K5">
         <v>0.47700000000000004</v>
@@ -746,16 +746,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R5">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S5">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T5">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U5">
         <v>0.45</v>
@@ -770,7 +770,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.36000000000000004</v>
       </c>
@@ -793,13 +793,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H6">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I6">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J6">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K6">
         <v>0.47700000000000004</v>
@@ -820,16 +820,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R6">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S6">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T6">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U6">
         <v>0.45</v>
@@ -844,7 +844,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.36000000000000004</v>
       </c>
@@ -867,13 +867,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H7">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I7">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J7">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K7">
         <v>0.47700000000000004</v>
@@ -894,16 +894,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q7">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R7">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S7">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T7">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U7">
         <v>0.45</v>
@@ -918,7 +918,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.36000000000000004</v>
       </c>
@@ -941,13 +941,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H8">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I8">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J8">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K8">
         <v>0.47700000000000004</v>
@@ -968,16 +968,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q8">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R8">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S8">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T8">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U8">
         <v>0.45</v>
@@ -992,7 +992,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.36000000000000004</v>
       </c>
@@ -1015,13 +1015,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H9">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I9">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J9">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K9">
         <v>0.47700000000000004</v>
@@ -1042,16 +1042,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q9">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R9">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S9">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T9">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U9">
         <v>0.45</v>
@@ -1066,7 +1066,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.36000000000000004</v>
       </c>
@@ -1089,13 +1089,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H10">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I10">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J10">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K10">
         <v>0.47700000000000004</v>
@@ -1116,16 +1116,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q10">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R10">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S10">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T10">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U10">
         <v>0.45</v>
@@ -1140,7 +1140,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.36000000000000004</v>
       </c>
@@ -1163,13 +1163,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H11">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I11">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J11">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K11">
         <v>0.47700000000000004</v>
@@ -1190,16 +1190,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q11">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R11">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S11">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T11">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U11">
         <v>0.45</v>
@@ -1214,7 +1214,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.36000000000000004</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H12">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I12">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J12">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K12">
         <v>0.47700000000000004</v>
@@ -1264,16 +1264,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q12">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R12">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S12">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T12">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U12">
         <v>0.45</v>
@@ -1288,7 +1288,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.36000000000000004</v>
       </c>
@@ -1311,13 +1311,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H13">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I13">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J13">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K13">
         <v>0.47700000000000004</v>
@@ -1338,16 +1338,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q13">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R13">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S13">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T13">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U13">
         <v>0.45</v>
@@ -1362,7 +1362,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.36000000000000004</v>
       </c>
@@ -1385,13 +1385,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H14">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I14">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J14">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K14">
         <v>0.47700000000000004</v>
@@ -1412,16 +1412,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q14">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R14">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S14">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T14">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U14">
         <v>0.45</v>
@@ -1436,7 +1436,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.36000000000000004</v>
       </c>
@@ -1459,13 +1459,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H15">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I15">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J15">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K15">
         <v>0.47700000000000004</v>
@@ -1486,16 +1486,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q15">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R15">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S15">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T15">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U15">
         <v>0.45</v>
@@ -1510,7 +1510,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.36000000000000004</v>
       </c>
@@ -1533,13 +1533,13 @@
         <v>0.31500000000000006</v>
       </c>
       <c r="H16">
-        <v>0.36</v>
+        <v>20.78</v>
       </c>
       <c r="I16">
-        <v>0.41000000000000003</v>
+        <v>30.68</v>
       </c>
       <c r="J16">
-        <v>0.41399999999999998</v>
+        <v>30.58</v>
       </c>
       <c r="K16">
         <v>0.47700000000000004</v>
@@ -1560,16 +1560,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="Q16">
-        <v>0.63900000000000001</v>
+        <v>60.08</v>
       </c>
       <c r="R16">
-        <v>0.59400000000000008</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="S16">
-        <v>0.58000000000000007</v>
+        <v>30.340000000000003</v>
       </c>
       <c r="T16">
-        <v>0.54</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="U16">
         <v>0.45</v>
@@ -1584,7 +1584,7 @@
         <v>0.37800000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.36000000000000004</v>
       </c>
